--- a/data/HHP.xlsx
+++ b/data/HHP.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>HHP</t>
@@ -24981,7 +24981,7 @@
         <v>1.3149106683E10</v>
       </c>
       <c r="H12" s="25" t="n">
-        <v>1.6220916087E10</v>
+        <v>1.6524916087E10</v>
       </c>
       <c r="J12" s="25" t="n">
         <v>2.700419797E9</v>
@@ -25059,7 +25059,7 @@
         <v>2.2879326376E10</v>
       </c>
       <c r="AI12" s="25" t="n">
-        <v>1.6220916087E10</v>
+        <v>1.6524916087E10</v>
       </c>
       <c r="AJ12" s="25" t="n">
         <v>1.7955108186E10</v>
@@ -25094,7 +25094,7 @@
         <v>4.086144135E9</v>
       </c>
       <c r="H13" s="25" t="n">
-        <v>9.820964247E9</v>
+        <v>1.0124964247E10</v>
       </c>
       <c r="J13" s="25" t="n">
         <v>1.40398966E9</v>
@@ -25172,7 +25172,7 @@
         <v>5.883183533E9</v>
       </c>
       <c r="AI13" s="25" t="n">
-        <v>9.820964247E9</v>
+        <v>1.0124964247E10</v>
       </c>
       <c r="AJ13" s="25" t="n">
         <v>1.0429341475E10</v>
@@ -25546,7 +25546,7 @@
         <v>1.19995134916E11</v>
       </c>
       <c r="H17" s="25" t="n">
-        <v>2.07153384609E11</v>
+        <v>2.07081538034E11</v>
       </c>
       <c r="J17" s="25" t="n">
         <v>0.0</v>
@@ -25624,7 +25624,7 @@
         <v>2.09694568457E11</v>
       </c>
       <c r="AI17" s="25" t="n">
-        <v>2.07153384609E11</v>
+        <v>2.07081538034E11</v>
       </c>
       <c r="AJ17" s="25" t="n">
         <v>1.98707548086E11</v>
@@ -25772,7 +25772,7 @@
         <v>1.19995134916E11</v>
       </c>
       <c r="H19" s="25" t="n">
-        <v>2.07153384609E11</v>
+        <v>2.07081538034E11</v>
       </c>
       <c r="J19" s="25" t="n">
         <v>0.0</v>
@@ -25850,7 +25850,7 @@
         <v>2.09694568457E11</v>
       </c>
       <c r="AI19" s="25" t="n">
-        <v>2.07153384609E11</v>
+        <v>2.07081538034E11</v>
       </c>
       <c r="AJ19" s="25" t="n">
         <v>1.98707548086E11</v>
@@ -25885,7 +25885,7 @@
         <v>1.19995134916E11</v>
       </c>
       <c r="H20" s="25" t="n">
-        <v>2.07153384609E11</v>
+        <v>2.07081538034E11</v>
       </c>
       <c r="J20" s="25" t="n">
         <v>0.0</v>
@@ -25963,7 +25963,7 @@
         <v>2.09694568457E11</v>
       </c>
       <c r="AI20" s="25" t="n">
-        <v>2.07153384609E11</v>
+        <v>2.07081538034E11</v>
       </c>
       <c r="AJ20" s="25" t="n">
         <v>1.98707548086E11</v>
@@ -26337,7 +26337,7 @@
         <v>3.0299709061E10</v>
       </c>
       <c r="H24" s="25" t="n">
-        <v>7.4133141798E10</v>
+        <v>6.2772738373E10</v>
       </c>
       <c r="J24" s="25" t="n">
         <v>1.5309831646E10</v>
@@ -26415,7 +26415,7 @@
         <v>5.2441977176E10</v>
       </c>
       <c r="AI24" s="25" t="n">
-        <v>7.4133141798E10</v>
+        <v>6.2772738373E10</v>
       </c>
       <c r="AJ24" s="25" t="n">
         <v>7.6933906677E10</v>
@@ -26789,7 +26789,7 @@
         <v>3.0299709061E10</v>
       </c>
       <c r="H28" s="25" t="n">
-        <v>7.4133141798E10</v>
+        <v>6.2772738373E10</v>
       </c>
       <c r="J28" s="25" t="n">
         <v>1.5309831646E10</v>
@@ -26867,7 +26867,7 @@
         <v>5.2441977176E10</v>
       </c>
       <c r="AI28" s="25" t="n">
-        <v>7.4133141798E10</v>
+        <v>6.2772738373E10</v>
       </c>
       <c r="AJ28" s="25" t="n">
         <v>7.6933906677E10</v>
@@ -26902,7 +26902,7 @@
         <v>1.70364604382E11</v>
       </c>
       <c r="H29" s="25" t="n">
-        <v>3.53501968122E11</v>
+        <v>3.53559429789E11</v>
       </c>
       <c r="J29" s="25" t="n">
         <v>5.277801661E10</v>
@@ -26980,7 +26980,7 @@
         <v>3.3317462574E11</v>
       </c>
       <c r="AI29" s="25" t="n">
-        <v>3.53501968122E11</v>
+        <v>3.53559429789E11</v>
       </c>
       <c r="AJ29" s="25" t="n">
         <v>3.63896330999E11</v>
@@ -27128,7 +27128,7 @@
         <v>5.4482906434E10</v>
       </c>
       <c r="H31" s="25" t="n">
-        <v>1.27720067183E11</v>
+        <v>1.53108577155E11</v>
       </c>
       <c r="J31" s="25" t="n">
         <v>4.083969777E10</v>
@@ -27206,7 +27206,7 @@
         <v>1.35147465353E11</v>
       </c>
       <c r="AI31" s="25" t="n">
-        <v>1.27720067183E11</v>
+        <v>1.53108577155E11</v>
       </c>
       <c r="AJ31" s="25" t="n">
         <v>1.17571281335E11</v>
@@ -27241,7 +27241,7 @@
         <v>1.861699193E9</v>
       </c>
       <c r="H32" s="25" t="n">
-        <v>2.8229516619E10</v>
+        <v>2.838834451E9</v>
       </c>
       <c r="J32" s="25" t="n">
         <v>4.76029533E8</v>
@@ -27319,7 +27319,7 @@
         <v>3.4764309173E10</v>
       </c>
       <c r="AI32" s="25" t="n">
-        <v>2.8229516619E10</v>
+        <v>2.838834451E9</v>
       </c>
       <c r="AJ32" s="25" t="n">
         <v>4.388423374E9</v>
@@ -27354,7 +27354,7 @@
         <v>1.580248053E9</v>
       </c>
       <c r="H33" s="25" t="n">
-        <v>1.0150350097E10</v>
+        <v>1.0176620138E10</v>
       </c>
       <c r="J33" s="25" t="n">
         <v>1.561397925E9</v>
@@ -27432,7 +27432,7 @@
         <v>4.8415473613E10</v>
       </c>
       <c r="AI33" s="25" t="n">
-        <v>1.0150350097E10</v>
+        <v>1.0176620138E10</v>
       </c>
       <c r="AJ33" s="25" t="n">
         <v>1.483453448E9</v>
@@ -27467,7 +27467,7 @@
         <v>1.104082639E9</v>
       </c>
       <c r="H34" s="25" t="n">
-        <v>2.0003248531E10</v>
+        <v>2.0036612353E10</v>
       </c>
       <c r="J34" s="25" t="n">
         <v>6.100889303E9</v>
@@ -27545,7 +27545,7 @@
         <v>1.7431184334E10</v>
       </c>
       <c r="AI34" s="25" t="n">
-        <v>2.0003248531E10</v>
+        <v>2.0036612353E10</v>
       </c>
       <c r="AJ34" s="25" t="n">
         <v>3.4322006829E10</v>
@@ -28597,7 +28597,7 @@
         <v>1.3776769315E10</v>
       </c>
       <c r="H44" s="25" t="n">
-        <v>1.1599837834E10</v>
+        <v>1.9793128E9</v>
       </c>
       <c r="J44" s="25" t="n">
         <v>0.0</v>
@@ -28675,7 +28675,7 @@
         <v>1.5792835388E10</v>
       </c>
       <c r="AI44" s="25" t="n">
-        <v>1.1599837834E10</v>
+        <v>1.9793128E9</v>
       </c>
       <c r="AJ44" s="25" t="n">
         <v>1.692833325E9</v>
@@ -28710,7 +28710,7 @@
         <v>1.3776769315E10</v>
       </c>
       <c r="H45" s="25" t="n">
-        <v>1.1599837834E10</v>
+        <v>1.9793128E9</v>
       </c>
       <c r="J45" s="25" t="n">
         <v>0.0</v>
@@ -28788,7 +28788,7 @@
         <v>1.2265988359E10</v>
       </c>
       <c r="AI45" s="25" t="n">
-        <v>1.1599837834E10</v>
+        <v>1.9793128E9</v>
       </c>
       <c r="AJ45" s="25" t="n">
         <v>1.692833325E9</v>
@@ -29162,7 +29162,7 @@
         <v>1.92768888441E11</v>
       </c>
       <c r="H49" s="25" t="n">
-        <v>2.53107860141E11</v>
+        <v>2.51903295266E11</v>
       </c>
       <c r="J49" s="25" t="n">
         <v>1.54643484835E11</v>
@@ -29240,7 +29240,7 @@
         <v>2.07643525519E11</v>
       </c>
       <c r="AI49" s="25" t="n">
-        <v>2.53107860141E11</v>
+        <v>2.51903295266E11</v>
       </c>
       <c r="AJ49" s="25" t="n">
         <v>1.524739207408E12</v>
@@ -29388,7 +29388,7 @@
         <v>3.3600320742E10</v>
       </c>
       <c r="H51" s="25" t="n">
-        <v>7.4372125284E10</v>
+        <v>7.3167560409E10</v>
       </c>
       <c r="J51" s="25" t="n">
         <v>7.592452713E9</v>
@@ -29466,7 +29466,7 @@
         <v>1.4874637078E10</v>
       </c>
       <c r="AI51" s="25" t="n">
-        <v>7.4372125284E10</v>
+        <v>7.3167560409E10</v>
       </c>
       <c r="AJ51" s="25" t="n">
         <v>1.272929430661E12</v>
@@ -29614,7 +29614,7 @@
         <v>9.345205153E10</v>
       </c>
       <c r="H53" s="25" t="n">
-        <v>1.14627336483E11</v>
+        <v>1.14832743626E11</v>
       </c>
       <c r="J53" s="25" t="n">
         <v>4.8259965534E10</v>
@@ -29692,7 +29692,7 @@
         <v>1.03571329128E11</v>
       </c>
       <c r="AI53" s="25" t="n">
-        <v>1.14627336483E11</v>
+        <v>1.14832743626E11</v>
       </c>
       <c r="AJ53" s="25" t="n">
         <v>1.29188448013E11</v>
@@ -29840,7 +29840,7 @@
         <v>2.0709504477E10</v>
       </c>
       <c r="H55" s="25" t="n">
-        <v>2.7184400469E10</v>
+        <v>2.7389807612E10</v>
       </c>
       <c r="J55" s="25" t="n">
         <v>9.687777201E9</v>
@@ -29918,7 +29918,7 @@
         <v>1.0119277598E10</v>
       </c>
       <c r="AI55" s="25" t="n">
-        <v>2.7184400469E10</v>
+        <v>2.7389807612E10</v>
       </c>
       <c r="AJ55" s="25" t="n">
         <v>1.4449222906E10</v>
@@ -30744,7 +30744,7 @@
         <v>6.890820932E9</v>
       </c>
       <c r="H63" s="25" t="n">
-        <v>2.414782044E9</v>
+        <v>1.906900568E9</v>
       </c>
       <c r="J63" s="25" t="n">
         <v>0.0</v>
@@ -30822,7 +30822,7 @@
         <v>5.297646042E9</v>
       </c>
       <c r="AI63" s="25" t="n">
-        <v>2.414782044E9</v>
+        <v>1.906900568E9</v>
       </c>
       <c r="AJ63" s="25" t="n">
         <v>1.767174394E9</v>
@@ -30857,7 +30857,7 @@
         <v>-7.747250523E9</v>
       </c>
       <c r="H64" s="25" t="n">
-        <v>-1.6393964815E10</v>
+        <v>-1.5886083339E10</v>
       </c>
       <c r="J64" s="25" t="n">
         <v>0.0</v>
@@ -30935,7 +30935,7 @@
         <v>0.0</v>
       </c>
       <c r="AI64" s="25" t="n">
-        <v>-1.6393964815E10</v>
+        <v>-1.5886083339E10</v>
       </c>
       <c r="AJ64" s="25" t="n">
         <v>-2.6189883E7</v>
@@ -33795,7 +33795,7 @@
         <v>4.311388077E9</v>
       </c>
       <c r="H90" s="25" t="n">
-        <v>7.866740095E9</v>
+        <v>7.903974342E9</v>
       </c>
       <c r="J90" s="25" t="n">
         <v>2.812272918E9</v>
@@ -33873,7 +33873,7 @@
         <v>6.295720819E9</v>
       </c>
       <c r="AI90" s="25" t="n">
-        <v>7.866740095E9</v>
+        <v>7.903974342E9</v>
       </c>
       <c r="AJ90" s="25" t="n">
         <v>9.422663529E9</v>
@@ -34247,7 +34247,7 @@
         <v>4.107043507E9</v>
       </c>
       <c r="H94" s="25" t="n">
-        <v>5.490234411E9</v>
+        <v>5.527468658E9</v>
       </c>
       <c r="J94" s="25" t="n">
         <v>7.13771264E8</v>
@@ -34325,7 +34325,7 @@
         <v>3.811930443E9</v>
       </c>
       <c r="AI94" s="25" t="n">
-        <v>5.490234411E9</v>
+        <v>5.527468658E9</v>
       </c>
       <c r="AJ94" s="25" t="n">
         <v>6.971991117E9</v>
@@ -34925,7 +34925,7 @@
         <v>1.284589282E9</v>
       </c>
       <c r="H100" s="25" t="n">
-        <v>9.90401297E8</v>
+        <v>1.055268184E9</v>
       </c>
       <c r="J100" s="25" t="n">
         <v>0.0</v>
@@ -35003,7 +35003,7 @@
         <v>5.35090876E8</v>
       </c>
       <c r="AI100" s="25" t="n">
-        <v>9.90401297E8</v>
+        <v>1.055268184E9</v>
       </c>
       <c r="AJ100" s="25" t="n">
         <v>6.200514646E9</v>
@@ -35377,7 +35377,7 @@
         <v>1.284589282E9</v>
       </c>
       <c r="H104" s="25" t="n">
-        <v>9.90401297E8</v>
+        <v>1.055268184E9</v>
       </c>
       <c r="J104" s="25" t="n">
         <v>0.0</v>
@@ -35455,7 +35455,7 @@
         <v>5.35090876E8</v>
       </c>
       <c r="AI104" s="25" t="n">
-        <v>9.90401297E8</v>
+        <v>1.055268184E9</v>
       </c>
       <c r="AJ104" s="25" t="n">
         <v>6.200514646E9</v>
@@ -35490,7 +35490,7 @@
         <v>3.7950917627E10</v>
       </c>
       <c r="H105" s="25" t="n">
-        <v>4.175275541E9</v>
+        <v>4.110408654E9</v>
       </c>
       <c r="J105" s="25" t="n">
         <v>1.000937417E9</v>
@@ -35568,7 +35568,7 @@
         <v>3.7500798665E10</v>
       </c>
       <c r="AI105" s="25" t="n">
-        <v>4.175275541E9</v>
+        <v>4.110408654E9</v>
       </c>
       <c r="AJ105" s="25" t="n">
         <v>1.1355603165E10</v>
@@ -35829,7 +35829,7 @@
         <v>0.0</v>
       </c>
       <c r="H108" s="25" t="n">
-        <v>8.2063519E7</v>
+        <v>6.0077564E7</v>
       </c>
       <c r="J108" s="25" t="n">
         <v>9.394137E7</v>
@@ -35907,7 +35907,7 @@
         <v>1.83305116E8</v>
       </c>
       <c r="AI108" s="25" t="n">
-        <v>8.2063519E7</v>
+        <v>6.0077564E7</v>
       </c>
       <c r="AJ108" s="25" t="n">
         <v>4.35871755E8</v>
@@ -36507,7 +36507,7 @@
         <v>3.758104086E10</v>
       </c>
       <c r="H114" s="25" t="n">
-        <v>3.525993261E9</v>
+        <v>3.483112329E9</v>
       </c>
       <c r="J114" s="25" t="n">
         <v>8.10597375E8</v>
@@ -36585,7 +36585,7 @@
         <v>3.6661735999E10</v>
       </c>
       <c r="AI114" s="25" t="n">
-        <v>3.525993261E9</v>
+        <v>3.483112329E9</v>
       </c>
       <c r="AJ114" s="25" t="n">
         <v>1.0167217175E10</v>
@@ -36620,7 +36620,7 @@
         <v>3.93161704608E11</v>
       </c>
       <c r="H115" s="25" t="n">
-        <v>8.43440002792E11</v>
+        <v>8.4829397204E11</v>
       </c>
       <c r="J115" s="25" t="n">
         <v>7.926702944E9</v>
@@ -36698,7 +36698,7 @@
         <v>8.04454928368E11</v>
       </c>
       <c r="AI115" s="25" t="n">
-        <v>8.43440002792E11</v>
+        <v>8.4829397204E11</v>
       </c>
       <c r="AJ115" s="25" t="n">
         <v>9.50441505424E11</v>
@@ -36733,7 +36733,7 @@
         <v>3.43048908465E11</v>
       </c>
       <c r="H116" s="25" t="n">
-        <v>8.01681644473E11</v>
+        <v>8.06535613721E11</v>
       </c>
       <c r="J116" s="25" t="n">
         <v>7.905452945E9</v>
@@ -36811,7 +36811,7 @@
         <v>7.60385544274E11</v>
       </c>
       <c r="AI116" s="25" t="n">
-        <v>8.01681644473E11</v>
+        <v>8.06535613721E11</v>
       </c>
       <c r="AJ116" s="25" t="n">
         <v>9.11595804562E11</v>
@@ -37637,7 +37637,7 @@
         <v>1.109333749604E12</v>
       </c>
       <c r="H124" s="25" t="n">
-        <v>1.870469957283E12</v>
+        <v>1.870595557733E12</v>
       </c>
       <c r="J124" s="25" t="n">
         <v>6.5212793311E10</v>
@@ -37715,7 +37715,7 @@
         <v>4.92694035672E11</v>
       </c>
       <c r="AI124" s="25" t="n">
-        <v>0.0</v>
+        <v>5.28339710188E11</v>
       </c>
       <c r="AJ124" s="25" t="n">
         <v>6.55697238599E11</v>
@@ -37750,7 +37750,7 @@
         <v>1.109333749604E12</v>
       </c>
       <c r="H125" s="25" t="n">
-        <v>1.870469957283E12</v>
+        <v>1.870595557733E12</v>
       </c>
       <c r="J125" s="25" t="n">
         <v>6.5212793311E10</v>
@@ -37828,7 +37828,7 @@
         <v>4.92694035672E11</v>
       </c>
       <c r="AI125" s="25" t="n">
-        <v>0.0</v>
+        <v>5.28339710188E11</v>
       </c>
       <c r="AJ125" s="25" t="n">
         <v>6.55697238599E11</v>
@@ -38089,7 +38089,7 @@
         <v>0.0</v>
       </c>
       <c r="H128" s="25" t="n">
-        <v>0.0</v>
+        <v>1.2560045E8</v>
       </c>
       <c r="J128" s="25" t="n">
         <v>0.0</v>
@@ -38428,7 +38428,7 @@
         <v>0.0</v>
       </c>
       <c r="H131" s="25" t="n">
-        <v>0.0</v>
+        <v>1.2560045E8</v>
       </c>
       <c r="J131" s="25" t="n">
         <v>0.0</v>
@@ -38880,7 +38880,7 @@
         <v>1.040652661043E12</v>
       </c>
       <c r="H135" s="25" t="n">
-        <v>1.812486999515E12</v>
+        <v>1.812629980949E12</v>
       </c>
       <c r="J135" s="25" t="n">
         <v>5.8111922916E10</v>
@@ -38958,7 +38958,7 @@
         <v>4.82444679934E11</v>
       </c>
       <c r="AI135" s="25" t="n">
-        <v>5.12010929152E11</v>
+        <v>5.12153910586E11</v>
       </c>
       <c r="AJ135" s="25" t="n">
         <v>6.22028487508E11</v>
@@ -38993,7 +38993,7 @@
         <v>8.51744007319E11</v>
       </c>
       <c r="H136" s="25" t="n">
-        <v>1.748337831573E12</v>
+        <v>1.752301762952E12</v>
       </c>
       <c r="J136" s="25" t="n">
         <v>5.8111922916E10</v>
@@ -39071,7 +39071,7 @@
         <v>4.68119503516E11</v>
       </c>
       <c r="AI136" s="25" t="n">
-        <v>4.93706825206E11</v>
+        <v>4.97670756585E11</v>
       </c>
       <c r="AJ136" s="25" t="n">
         <v>4.64550226058E11</v>
@@ -39106,7 +39106,7 @@
         <v>1.88908653724E11</v>
       </c>
       <c r="H137" s="25" t="n">
-        <v>6.4149167942E10</v>
+        <v>6.0328217997E10</v>
       </c>
       <c r="J137" s="25" t="n">
         <v>0.0</v>
@@ -39184,7 +39184,7 @@
         <v>1.4325176418E10</v>
       </c>
       <c r="AI137" s="25" t="n">
-        <v>1.8304103946E10</v>
+        <v>1.4483154001E10</v>
       </c>
       <c r="AJ137" s="25" t="n">
         <v>1.5747826145E11</v>
@@ -39897,7 +39897,7 @@
         <v>7.793615305E9</v>
       </c>
       <c r="H144" s="25" t="n">
-        <v>8.303639433E9</v>
+        <v>8.221025276E9</v>
       </c>
       <c r="J144" s="25" t="n">
         <v>1.86481485E8</v>
@@ -39975,7 +39975,7 @@
         <v>3.510682E9</v>
       </c>
       <c r="AI144" s="25" t="n">
-        <v>0.0</v>
+        <v>1.298443006E9</v>
       </c>
       <c r="AJ144" s="25" t="n">
         <v>2.979348413E9</v>
@@ -40010,7 +40010,7 @@
         <v>7.436095868E9</v>
       </c>
       <c r="H145" s="25" t="n">
-        <v>6.736811574E9</v>
+        <v>6.726371839E9</v>
       </c>
       <c r="J145" s="25" t="n">
         <v>5.4249688E7</v>
@@ -40088,7 +40088,7 @@
         <v>2.376262744E9</v>
       </c>
       <c r="AI145" s="25" t="n">
-        <v>0.0</v>
+        <v>8.80876363E8</v>
       </c>
       <c r="AJ145" s="25" t="n">
         <v>1.967437426E9</v>
@@ -40914,7 +40914,7 @@
         <v>3.57519437E8</v>
       </c>
       <c r="H153" s="25" t="n">
-        <v>1.566827859E9</v>
+        <v>1.494653437E9</v>
       </c>
       <c r="J153" s="25" t="n">
         <v>1.28219178E8</v>
@@ -40992,7 +40992,7 @@
         <v>1.134419256E9</v>
       </c>
       <c r="AI153" s="25" t="n">
-        <v>0.0</v>
+        <v>4.17566643E8</v>
       </c>
       <c r="AJ153" s="25" t="n">
         <v>1.011910987E9</v>
@@ -41027,7 +41027,7 @@
         <v>3.9172679714E10</v>
       </c>
       <c r="H154" s="25" t="n">
-        <v>2.579128573E10</v>
+        <v>2.5329196607E10</v>
       </c>
       <c r="J154" s="25" t="n">
         <v>2.061280334E9</v>
@@ -41105,7 +41105,7 @@
         <v>6.28334027E9</v>
       </c>
       <c r="AI154" s="25" t="n">
-        <v>9.602275922E9</v>
+        <v>8.140186799E9</v>
       </c>
       <c r="AJ154" s="25" t="n">
         <v>1.7306905518E10</v>
@@ -41140,7 +41140,7 @@
         <v>2.7121135714E10</v>
       </c>
       <c r="H155" s="25" t="n">
-        <v>2.5184420661E10</v>
+        <v>2.4695483727E10</v>
       </c>
       <c r="J155" s="25" t="n">
         <v>2.061280334E9</v>
@@ -41218,7 +41218,7 @@
         <v>6.283199737E9</v>
       </c>
       <c r="AI155" s="25" t="n">
-        <v>1.2553755791E10</v>
+        <v>7.521563267E9</v>
       </c>
       <c r="AJ155" s="25" t="n">
         <v>1.7148490756E10</v>
@@ -41931,7 +41931,7 @@
         <v>1.2051544E10</v>
       </c>
       <c r="H162" s="25" t="n">
-        <v>6.06865069E8</v>
+        <v>6.3371288E8</v>
       </c>
       <c r="J162" s="25" t="n">
         <v>0.0</v>
@@ -42009,7 +42009,7 @@
         <v>140533.0</v>
       </c>
       <c r="AI162" s="25" t="n">
-        <v>-2.951479869E9</v>
+        <v>6.18623532E8</v>
       </c>
       <c r="AJ162" s="25" t="n">
         <v>1.58414762E8</v>
@@ -42044,7 +42044,7 @@
         <v>2.00206845647E11</v>
       </c>
       <c r="H163" s="25" t="n">
-        <v>7.4259903729E10</v>
+        <v>1.03159591107E11</v>
       </c>
       <c r="J163" s="25" t="n">
         <v>0.0</v>
@@ -42122,7 +42122,7 @@
         <v>8.891845216E10</v>
       </c>
       <c r="AI163" s="25" t="n">
-        <v>0.0</v>
+        <v>-2.6540851721E10</v>
       </c>
       <c r="AJ163" s="25" t="n">
         <v>0.0</v>
@@ -42157,7 +42157,7 @@
         <v>1.29897100535E11</v>
       </c>
       <c r="H164" s="25" t="n">
-        <v>4.7184772936E10</v>
+        <v>5.5254538231E10</v>
       </c>
       <c r="J164" s="25" t="n">
         <v>0.0</v>
@@ -42235,7 +42235,7 @@
         <v>7.572031828E10</v>
       </c>
       <c r="AI164" s="25" t="n">
-        <v>0.0</v>
+        <v>-3.6280710221E10</v>
       </c>
       <c r="AJ164" s="25" t="n">
         <v>0.0</v>
@@ -42270,7 +42270,7 @@
         <v>8.701046514E9</v>
       </c>
       <c r="H165" s="25" t="n">
-        <v>4.482256528E9</v>
+        <v>8.398323383E9</v>
       </c>
       <c r="J165" s="25" t="n">
         <v>0.0</v>
@@ -42348,7 +42348,7 @@
         <v>8.97221274E8</v>
       </c>
       <c r="AI165" s="25" t="n">
-        <v>0.0</v>
+        <v>3.380655542E9</v>
       </c>
       <c r="AJ165" s="25" t="n">
         <v>0.0</v>
@@ -42383,7 +42383,7 @@
         <v>1.9853074886E10</v>
       </c>
       <c r="H166" s="25" t="n">
-        <v>1.3205217698E10</v>
+        <v>1.3410624841E10</v>
       </c>
       <c r="J166" s="25" t="n">
         <v>0.0</v>
@@ -42461,7 +42461,7 @@
         <v>5.458416128E9</v>
       </c>
       <c r="AI166" s="25" t="n">
-        <v>0.0</v>
+        <v>-2.396028135E9</v>
       </c>
       <c r="AJ166" s="25" t="n">
         <v>0.0</v>
@@ -42496,7 +42496,7 @@
         <v>3.7265022975E10</v>
       </c>
       <c r="H167" s="25" t="n">
-        <v>7.546111452E9</v>
+        <v>2.420310088E10</v>
       </c>
       <c r="J167" s="25" t="n">
         <v>0.0</v>
@@ -42574,7 +42574,7 @@
         <v>5.653195317E9</v>
       </c>
       <c r="AI167" s="25" t="n">
-        <v>0.0</v>
+        <v>8.518328518E9</v>
       </c>
       <c r="AJ167" s="25" t="n">
         <v>0.0</v>
@@ -42609,7 +42609,7 @@
         <v>4.490600737E9</v>
       </c>
       <c r="H168" s="25" t="n">
-        <v>1.841545115E9</v>
+        <v>1.893003772E9</v>
       </c>
       <c r="J168" s="25" t="n">
         <v>0.0</v>
@@ -42687,7 +42687,7 @@
         <v>1.189301161E9</v>
       </c>
       <c r="AI168" s="25" t="n">
-        <v>0.0</v>
+        <v>2.36902575E8</v>
       </c>
       <c r="AJ168" s="25" t="n">
         <v>0.0</v>

--- a/data/HHP.xlsx
+++ b/data/HHP.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>HHP</t>

--- a/data/HHP.xlsx
+++ b/data/HHP.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>HHP</t>

--- a/data/HHP.xlsx
+++ b/data/HHP.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>HHP</t>
